--- a/ref/ingestion/calibrated/brazil/model_input_variables_brazil_af_calibrated.xlsx
+++ b/ref/ingestion/calibrated/brazil/model_input_variables_brazil_af_calibrated.xlsx
@@ -6591,112 +6591,112 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="K35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="L35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="M35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="N35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="O35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="P35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Q35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="R35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="S35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="T35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="U35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="V35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="W35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="X35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Y35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Z35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AA35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AB35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AC35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AD35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AE35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AF35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AG35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AH35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AI35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AJ35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AK35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AL35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AM35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AN35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AO35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AP35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AQ35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AR35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AS35">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
     </row>
     <row r="36" spans="1:45">
@@ -6713,112 +6713,112 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="K36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="L36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="M36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="N36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="O36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="P36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Q36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="R36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="S36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="T36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="U36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="V36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="W36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="X36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Y36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Z36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AA36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AB36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AC36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AD36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AE36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AF36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AG36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AH36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AI36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AJ36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AK36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AL36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AM36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AN36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AO36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AP36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AQ36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AR36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AS36">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
     </row>
     <row r="37" spans="1:45">
@@ -6957,112 +6957,112 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="K38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="L38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="M38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="N38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="O38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="P38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Q38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="R38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="S38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="T38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="U38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="V38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="W38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="X38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Y38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Z38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AA38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AB38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AC38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AD38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AE38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AF38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AG38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AH38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AI38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AJ38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AK38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AL38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AM38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AN38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AO38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AP38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AQ38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AR38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AS38">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
     </row>
     <row r="39" spans="1:45">
@@ -7079,112 +7079,112 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="K39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="L39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="M39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="N39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="O39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="P39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Q39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="R39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="S39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="T39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="U39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="V39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="W39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="X39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Y39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Z39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AA39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AB39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AC39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AD39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AE39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AF39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AG39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AH39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AI39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AJ39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AK39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AL39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AM39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AN39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AO39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AP39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AQ39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AR39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AS39">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
     </row>
     <row r="40" spans="1:45">
@@ -7201,112 +7201,112 @@
         <v>1</v>
       </c>
       <c r="J40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="K40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="L40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="M40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="N40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="O40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="P40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Q40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="R40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="S40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="T40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="U40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="V40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="W40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="X40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Y40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Z40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AA40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AB40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AC40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AD40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AE40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AF40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AG40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AH40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AI40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AJ40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AK40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AL40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AM40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AN40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AO40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AP40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AQ40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AR40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AS40">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
     </row>
     <row r="41" spans="1:45">
@@ -7445,112 +7445,112 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="K42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="L42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="M42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="N42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="O42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="P42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Q42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="R42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="S42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="T42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="U42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="V42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="W42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="X42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Y42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Z42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AA42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AB42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AC42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AD42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AE42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AF42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AG42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AH42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AI42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AJ42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AK42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AL42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AM42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AN42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AO42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AP42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AQ42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AR42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AS42">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
     </row>
     <row r="43" spans="1:45">
@@ -10647,112 +10647,112 @@
         <v>1</v>
       </c>
       <c r="J68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="K68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="L68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="M68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="N68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="O68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="P68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Q68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="R68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="S68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="T68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="U68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="V68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="W68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="X68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Y68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Z68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AA68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AB68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AC68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AD68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AE68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AF68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AG68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AH68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AI68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AJ68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AK68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AL68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AM68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AN68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AO68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AP68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AQ68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AR68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AS68">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
     </row>
     <row r="69" spans="1:45">
@@ -10769,112 +10769,112 @@
         <v>1</v>
       </c>
       <c r="J69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="K69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="L69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="M69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="N69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="O69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="P69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Q69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="R69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="S69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="T69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="U69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="V69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="W69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="X69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Y69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Z69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AA69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AB69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AC69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AD69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AE69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AF69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AG69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AH69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AI69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AJ69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AK69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AL69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AM69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AN69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AO69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AP69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AQ69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AR69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AS69">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
     </row>
     <row r="70" spans="1:45">
@@ -11013,112 +11013,112 @@
         <v>1</v>
       </c>
       <c r="J71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="K71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="L71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="M71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="N71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="O71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="P71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Q71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="R71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="S71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="T71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="U71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="V71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="W71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="X71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Y71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Z71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AA71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AB71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AC71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AD71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AE71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AF71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AG71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AH71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AI71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AJ71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AK71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AL71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AM71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AN71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AO71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AP71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AQ71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AR71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AS71">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
     </row>
     <row r="72" spans="1:45">
@@ -11135,112 +11135,112 @@
         <v>1</v>
       </c>
       <c r="J72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="K72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="L72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="M72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="N72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="O72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="P72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Q72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="R72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="S72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="T72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="U72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="V72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="W72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="X72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Y72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Z72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AA72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AB72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AC72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AD72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AE72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AF72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AG72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AH72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AI72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AJ72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AK72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AL72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AM72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AN72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AO72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AP72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AQ72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AR72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AS72">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
     </row>
     <row r="73" spans="1:45">
@@ -11257,112 +11257,112 @@
         <v>1</v>
       </c>
       <c r="J73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="K73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="L73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="M73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="N73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="O73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="P73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Q73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="R73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="S73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="T73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="U73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="V73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="W73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="X73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Y73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Z73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AA73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AB73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AC73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AD73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AE73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AF73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AG73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AH73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AI73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AJ73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AK73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AL73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AM73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AN73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AO73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AP73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AQ73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AR73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AS73">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
     </row>
     <row r="74" spans="1:45">
@@ -11501,112 +11501,112 @@
         <v>1</v>
       </c>
       <c r="J75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="K75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="L75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="M75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="N75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="O75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="P75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Q75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="R75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="S75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="T75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="U75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="V75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="W75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="X75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Y75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Z75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AA75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AB75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AC75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AD75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AE75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AF75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AG75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AH75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AI75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AJ75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AK75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AL75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AM75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AN75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AO75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AP75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AQ75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AR75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AS75">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
     </row>
     <row r="76" spans="1:45">
@@ -11623,112 +11623,112 @@
         <v>1</v>
       </c>
       <c r="J76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="K76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="L76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="M76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="N76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="O76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="P76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Q76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="R76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="S76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="T76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="U76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="V76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="W76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="X76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Y76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Z76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AA76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AB76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AC76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AD76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AE76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AF76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AG76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AH76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AI76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AJ76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AK76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AL76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AM76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AN76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AO76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AP76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AQ76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AR76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AS76">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
     </row>
     <row r="77" spans="1:45">
@@ -11745,112 +11745,112 @@
         <v>1</v>
       </c>
       <c r="J77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="K77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="L77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="M77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="N77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="O77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="P77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Q77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="R77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="S77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="T77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="U77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="V77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="W77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="X77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Y77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Z77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AA77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AB77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AC77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AD77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AE77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AF77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AG77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AH77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AI77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AJ77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AK77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AL77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AM77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AN77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AO77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AP77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AQ77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AR77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AS77">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
     </row>
     <row r="78" spans="1:45">
@@ -11989,112 +11989,112 @@
         <v>1</v>
       </c>
       <c r="J79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="K79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="L79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="M79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="N79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="O79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="P79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Q79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="R79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="S79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="T79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="U79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="V79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="W79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="X79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Y79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Z79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AA79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AB79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AC79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AD79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AE79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AF79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AG79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AH79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AI79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AJ79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AK79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AL79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AM79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AN79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AO79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AP79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AQ79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AR79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AS79">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
     </row>
     <row r="80" spans="1:45">
@@ -16563,112 +16563,112 @@
         <v>1</v>
       </c>
       <c r="J116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="K116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="L116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="M116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="N116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="O116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="P116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Q116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="R116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="S116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="T116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="U116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="V116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="W116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="X116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Y116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Z116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AA116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AB116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AC116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AD116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AE116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AF116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AG116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AH116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AI116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AJ116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AK116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AL116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AM116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AN116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AO116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AP116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AQ116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AR116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AS116">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
     </row>
     <row r="117" spans="1:45">
@@ -16685,112 +16685,112 @@
         <v>1</v>
       </c>
       <c r="J117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="K117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="L117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="M117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="N117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="O117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="P117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Q117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="R117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="S117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="T117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="U117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="V117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="W117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="X117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Y117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Z117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AA117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AB117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AC117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AD117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AE117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AF117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AG117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AH117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AI117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AJ117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AK117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AL117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AM117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AN117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AO117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AP117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AQ117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AR117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AS117">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
     </row>
     <row r="118" spans="1:45">
@@ -16929,112 +16929,112 @@
         <v>1</v>
       </c>
       <c r="J119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="K119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="L119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="M119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="N119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="O119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="P119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Q119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="R119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="S119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="T119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="U119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="V119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="W119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="X119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Y119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Z119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AA119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AB119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AC119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AD119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AE119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AF119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AG119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AH119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AI119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AJ119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AK119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AL119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AM119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AN119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AO119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AP119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AQ119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AR119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AS119">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
     </row>
     <row r="120" spans="1:45">
@@ -17051,112 +17051,112 @@
         <v>1</v>
       </c>
       <c r="J120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="K120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="L120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="M120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="N120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="O120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="P120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Q120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="R120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="S120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="T120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="U120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="V120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="W120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="X120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Y120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Z120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AA120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AB120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AC120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AD120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AE120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AF120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AG120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AH120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AI120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AJ120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AK120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AL120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AM120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AN120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AO120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AP120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AQ120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AR120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AS120">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
     </row>
     <row r="121" spans="1:45">
@@ -17173,112 +17173,112 @@
         <v>1</v>
       </c>
       <c r="J121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="K121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="L121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="M121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="N121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="O121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="P121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Q121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="R121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="S121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="T121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="U121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="V121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="W121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="X121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Y121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Z121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AA121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AB121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AC121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AD121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AE121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AF121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AG121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AH121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AI121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AJ121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AK121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AL121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AM121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AN121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AO121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AP121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AQ121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AR121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AS121">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
     </row>
     <row r="122" spans="1:45">
@@ -17417,112 +17417,112 @@
         <v>1</v>
       </c>
       <c r="J123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="K123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="L123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="M123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="N123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="O123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="P123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Q123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="R123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="S123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="T123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="U123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="V123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="W123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="X123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Y123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Z123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AA123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AB123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AC123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AD123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AE123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AF123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AG123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AH123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AI123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AJ123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AK123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AL123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AM123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AN123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AO123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AP123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AQ123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AR123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AS123">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
     </row>
     <row r="124" spans="1:45">
@@ -17539,112 +17539,112 @@
         <v>1</v>
       </c>
       <c r="J124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="K124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="L124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="M124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="N124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="O124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="P124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Q124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="R124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="S124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="T124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="U124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="V124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="W124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="X124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Y124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Z124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AA124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AB124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AC124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AD124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AE124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AF124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AG124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AH124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AI124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AJ124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AK124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AL124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AM124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AN124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AO124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AP124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AQ124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AR124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AS124">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
     </row>
     <row r="125" spans="1:45">
@@ -17661,112 +17661,112 @@
         <v>1</v>
       </c>
       <c r="J125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="K125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="L125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="M125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="N125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="O125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="P125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Q125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="R125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="S125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="T125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="U125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="V125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="W125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="X125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Y125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Z125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AA125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AB125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AC125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AD125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AE125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AF125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AG125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AH125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AI125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AJ125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AK125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AL125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AM125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AN125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AO125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AP125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AQ125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AR125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AS125">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
     </row>
     <row r="126" spans="1:45">
@@ -17905,112 +17905,112 @@
         <v>1</v>
       </c>
       <c r="J127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="K127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="L127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="M127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="N127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="O127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="P127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Q127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="R127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="S127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="T127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="U127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="V127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="W127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="X127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Y127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Z127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AA127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AB127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AC127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AD127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AE127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AF127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AG127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AH127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AI127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AJ127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AK127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AL127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AM127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AN127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AO127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AP127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AQ127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AR127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AS127">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
     </row>
     <row r="128" spans="1:45">
@@ -18149,112 +18149,112 @@
         <v>1</v>
       </c>
       <c r="J129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="K129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="L129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="M129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="N129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="O129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="P129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Q129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="R129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="S129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="T129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="U129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="V129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="W129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="X129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Y129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Z129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AA129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AB129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AC129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AD129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AE129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AF129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AG129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AH129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AI129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AJ129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AK129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AL129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AM129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AN129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AO129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AP129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AQ129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AR129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AS129">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
     </row>
     <row r="130" spans="1:45">
@@ -18271,112 +18271,112 @@
         <v>1</v>
       </c>
       <c r="J130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="K130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="L130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="M130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="N130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="O130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="P130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Q130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="R130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="S130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="T130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="U130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="V130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="W130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="X130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Y130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Z130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AA130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AB130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AC130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AD130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AE130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AF130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AG130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AH130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AI130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AJ130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AK130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AL130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AM130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AN130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AO130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AP130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AQ130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AR130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AS130">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
     </row>
     <row r="131" spans="1:45">
@@ -18515,112 +18515,112 @@
         <v>1</v>
       </c>
       <c r="J132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="K132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="L132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="M132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="N132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="O132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="P132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Q132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="R132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="S132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="T132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="U132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="V132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="W132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="X132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Y132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Z132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AA132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AB132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AC132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AD132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AE132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AF132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AG132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AH132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AI132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AJ132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AK132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AL132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AM132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AN132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AO132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AP132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AQ132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AR132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AS132">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
     </row>
     <row r="133" spans="1:45">
@@ -18637,112 +18637,112 @@
         <v>1</v>
       </c>
       <c r="J133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="K133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="L133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="M133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="N133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="O133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="P133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Q133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="R133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="S133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="T133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="U133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="V133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="W133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="X133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Y133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Z133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AA133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AB133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AC133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AD133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AE133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AF133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AG133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AH133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AI133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AJ133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AK133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AL133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AM133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AN133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AO133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AP133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AQ133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AR133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AS133">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
     </row>
     <row r="134" spans="1:45">
@@ -18759,112 +18759,112 @@
         <v>1</v>
       </c>
       <c r="J134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="K134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="L134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="M134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="N134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="O134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="P134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Q134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="R134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="S134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="T134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="U134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="V134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="W134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="X134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Y134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Z134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AA134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AB134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AC134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AD134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AE134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AF134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AG134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AH134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AI134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AJ134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AK134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AL134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AM134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AN134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AO134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AP134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AQ134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AR134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AS134">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
     </row>
     <row r="135" spans="1:45">
@@ -19003,112 +19003,112 @@
         <v>1</v>
       </c>
       <c r="J136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="K136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="L136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="M136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="N136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="O136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="P136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Q136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="R136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="S136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="T136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="U136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="V136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="W136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="X136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Y136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Z136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AA136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AB136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AC136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AD136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AE136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AF136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AG136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AH136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AI136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AJ136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AK136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AL136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AM136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AN136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AO136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AP136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AQ136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AR136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AS136">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
     </row>
     <row r="137" spans="1:45">
@@ -19125,112 +19125,112 @@
         <v>1</v>
       </c>
       <c r="J137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="K137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="L137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="M137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="N137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="O137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="P137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Q137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="R137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="S137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="T137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="U137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="V137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="W137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="X137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Y137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Z137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AA137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AB137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AC137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AD137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AE137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AF137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AG137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AH137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AI137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AJ137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AK137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AL137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AM137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AN137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AO137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AP137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AQ137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AR137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AS137">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
     </row>
     <row r="138" spans="1:45">
@@ -19247,112 +19247,112 @@
         <v>1</v>
       </c>
       <c r="J138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="K138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="L138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="M138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="N138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="O138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="P138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Q138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="R138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="S138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="T138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="U138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="V138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="W138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="X138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Y138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Z138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AA138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AB138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AC138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AD138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AE138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AF138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AG138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AH138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AI138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AJ138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AK138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AL138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AM138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AN138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AO138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AP138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AQ138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AR138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AS138">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
     </row>
     <row r="139" spans="1:45">
@@ -19491,112 +19491,112 @@
         <v>1</v>
       </c>
       <c r="J140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="K140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="L140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="M140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="N140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="O140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="P140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Q140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="R140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="S140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="T140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="U140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="V140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="W140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="X140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Y140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Z140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AA140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AB140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AC140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AD140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AE140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AF140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AG140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AH140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AI140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AJ140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AK140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AL140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AM140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AN140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AO140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AP140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AQ140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AR140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AS140">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
     </row>
     <row r="141" spans="1:45">
@@ -19613,112 +19613,112 @@
         <v>1</v>
       </c>
       <c r="J141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="K141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="L141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="M141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="N141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="O141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="P141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Q141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="R141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="S141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="T141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="U141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="V141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="W141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="X141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Y141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Z141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AA141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AB141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AC141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AD141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AE141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AF141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AG141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AH141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AI141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AJ141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AK141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AL141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AM141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AN141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AO141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AP141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AQ141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AR141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AS141">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
     </row>
     <row r="142" spans="1:45">
@@ -19735,112 +19735,112 @@
         <v>1</v>
       </c>
       <c r="J142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="K142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="L142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="M142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="N142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="O142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="P142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Q142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="R142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="S142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="T142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="U142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="V142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="W142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="X142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Y142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Z142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AA142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AB142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AC142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AD142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AE142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AF142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AG142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AH142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AI142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AJ142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AK142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AL142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AM142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AN142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AO142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AP142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AQ142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AR142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AS142">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
     </row>
     <row r="143" spans="1:45">
@@ -19979,112 +19979,112 @@
         <v>1</v>
       </c>
       <c r="J144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="K144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="L144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="M144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="N144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="O144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="P144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Q144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="R144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="S144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="T144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="U144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="V144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="W144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="X144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Y144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Z144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AA144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AB144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AC144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AD144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AE144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AF144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AG144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AH144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AI144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AJ144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AK144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AL144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AM144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AN144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AO144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AP144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AQ144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AR144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AS144">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
     </row>
     <row r="145" spans="1:45">
@@ -20101,112 +20101,112 @@
         <v>1</v>
       </c>
       <c r="J145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="K145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="L145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="M145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="N145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="O145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="P145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Q145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="R145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="S145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="T145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="U145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="V145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="W145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="X145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Y145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Z145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AA145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AB145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AC145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AD145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AE145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AF145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AG145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AH145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AI145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AJ145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AK145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AL145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AM145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AN145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AO145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AP145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AQ145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AR145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AS145">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
     </row>
     <row r="146" spans="1:45">
@@ -20223,112 +20223,112 @@
         <v>1</v>
       </c>
       <c r="J146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="K146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="L146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="M146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="N146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="O146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="P146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Q146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="R146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="S146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="T146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="U146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="V146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="W146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="X146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Y146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Z146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AA146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AB146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AC146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AD146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AE146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AF146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AG146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AH146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AI146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AJ146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AK146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AL146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AM146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AN146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AO146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AP146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AQ146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AR146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AS146">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
     </row>
     <row r="147" spans="1:45">
@@ -20467,112 +20467,112 @@
         <v>1</v>
       </c>
       <c r="J148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="K148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="L148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="M148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="N148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="O148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="P148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Q148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="R148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="S148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="T148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="U148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="V148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="W148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="X148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Y148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Z148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AA148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AB148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AC148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AD148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AE148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AF148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AG148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AH148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AI148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AJ148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AK148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AL148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AM148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AN148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AO148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AP148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AQ148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AR148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AS148">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
     </row>
     <row r="149" spans="1:45">
@@ -26687,112 +26687,112 @@
         <v>1</v>
       </c>
       <c r="J198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="K198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="L198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="M198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="N198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="O198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="P198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Q198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="R198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="S198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="T198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="U198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="V198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="W198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="X198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Y198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Z198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AA198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AB198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AC198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AD198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AE198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AF198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AG198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AH198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AI198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AJ198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AK198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AL198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AM198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AN198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AO198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AP198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AQ198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AR198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AS198">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
     </row>
     <row r="199" spans="1:45">
@@ -27053,112 +27053,112 @@
         <v>1</v>
       </c>
       <c r="J201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="K201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="L201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="M201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="N201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="O201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="P201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Q201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="R201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="S201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="T201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="U201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="V201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="W201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="X201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Y201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Z201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AA201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AB201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AC201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AD201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AE201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AF201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AG201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AH201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AI201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AJ201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AK201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AL201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AM201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AN201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AO201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AP201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AQ201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AR201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AS201">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
     </row>
     <row r="202" spans="1:45">
@@ -27419,112 +27419,112 @@
         <v>1</v>
       </c>
       <c r="J204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="K204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="L204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="M204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="N204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="O204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="P204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Q204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="R204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="S204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="T204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="U204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="V204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="W204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="X204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Y204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Z204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AA204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AB204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AC204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AD204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AE204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AF204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AG204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AH204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AI204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AJ204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AK204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AL204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AM204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AN204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AO204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AP204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AQ204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AR204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AS204">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
     </row>
     <row r="205" spans="1:45">
@@ -37667,112 +37667,112 @@
         <v>1</v>
       </c>
       <c r="J288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="K288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="L288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="M288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="N288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="O288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="P288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Q288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="R288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="S288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="T288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="U288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="V288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="W288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="X288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Y288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="Z288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AA288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AB288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AC288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AD288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AE288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AF288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AG288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AH288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AI288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AJ288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AK288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AL288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AM288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AN288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AO288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AP288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AQ288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AR288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
       <c r="AS288">
-        <v>0.15247705647011</v>
+        <v>0.1524770564701098</v>
       </c>
     </row>
     <row r="289" spans="1:45">
@@ -37789,112 +37789,112 @@
         <v>1</v>
       </c>
       <c r="J289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="K289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="L289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="M289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="N289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="O289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="P289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Q289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="R289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="S289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="T289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="U289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="V289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="W289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="X289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Y289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="Z289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AA289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AB289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AC289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AD289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AE289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AF289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AG289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AH289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AI289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AJ289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AK289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AL289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AM289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AN289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AO289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AP289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AQ289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AR289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
       <c r="AS289">
-        <v>0.84752294352989</v>
+        <v>0.8475229435298902</v>
       </c>
     </row>
     <row r="290" spans="1:45">
@@ -38033,112 +38033,112 @@
         <v>1</v>
       </c>
       <c r="J291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="K291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="L291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="M291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="N291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="O291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="P291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Q291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="R291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="S291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="T291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="U291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="V291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="W291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="X291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Y291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Z291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AA291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AB291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AC291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AD291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AE291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AF291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AG291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AH291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AI291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AJ291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AK291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AL291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AM291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AN291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AO291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AP291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AQ291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AR291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AS291">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
     </row>
     <row r="292" spans="1:45">
@@ -39741,112 +39741,112 @@
         <v>1</v>
       </c>
       <c r="J305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="K305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="L305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="M305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="N305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="O305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="P305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Q305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="R305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="S305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="T305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="U305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="V305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="W305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="X305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Y305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Z305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AA305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AB305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AC305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AD305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AE305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AF305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AG305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AH305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AI305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AJ305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AK305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AL305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AM305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AN305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AO305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AP305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AQ305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AR305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AS305">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
     </row>
     <row r="306" spans="1:45">
@@ -40351,112 +40351,112 @@
         <v>1</v>
       </c>
       <c r="J310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="K310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="L310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="M310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="N310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="O310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="P310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Q310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="R310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="S310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="T310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="U310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="V310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="W310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="X310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Y310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="Z310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AA310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AB310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AC310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AD310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AE310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AF310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AG310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AH310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AI310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AJ310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AK310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AL310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AM310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AN310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AO310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AP310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AQ310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AR310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
       <c r="AS310">
-        <v>0.935808212423247</v>
+        <v>0.9358082124232472</v>
       </c>
     </row>
     <row r="311" spans="1:45">
